--- a/Data/Input/cnx-job-creds.xlsx
+++ b/Data/Input/cnx-job-creds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HR-RPA\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76148A7F-9FF4-4D6B-835A-B52136759289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0281D-3570-45AD-9BB3-4C07A2D439AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B69EE173-D7B3-42EC-A966-02074DE7ABC5}"/>
+    <workbookView xWindow="2850" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{B69EE173-D7B3-42EC-A966-02074DE7ABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>https://rrhodes.quickbase.com</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Connext!2021</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ConnextCareers</t>
+  </si>
+  <si>
+    <t>dbs01051976@gmail.com</t>
+  </si>
+  <si>
+    <t>connext$ecurit1</t>
   </si>
 </sst>
 </file>
@@ -476,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6307363D-1478-4D91-B843-8223038865D0}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="66.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="66.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -504,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -513,18 +522,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -535,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -544,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -555,9 +564,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>15</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +584,7 @@
     <hyperlink ref="A4" r:id="rId5" location="jobs" xr:uid="{E705B94F-629C-4DA7-85A8-0FCA1D41C2F9}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{20954495-6A92-4F80-8ECA-1230C7528871}"/>
     <hyperlink ref="A5" r:id="rId7" location="/jobs?page=1&amp;status=1" display="https://siva.jobstreet.com.ph/ - /jobs?page=1&amp;status=1" xr:uid="{2DEAC8CB-2918-44E9-B5D1-B4312ECAED33}"/>
-    <hyperlink ref="B5" r:id="rId8" display="mailto:careers@connext.solutions" xr:uid="{FD4214BB-4188-44C7-8D3F-22D07DB7FB63}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{FD4214BB-4188-44C7-8D3F-22D07DB7FB63}"/>
     <hyperlink ref="B6" r:id="rId9" display="mailto:connextcareers1@gmail.com" xr:uid="{9CD37565-599B-44E0-9A7F-E5FDA5F74D46}"/>
     <hyperlink ref="A7" r:id="rId10" xr:uid="{3EEDC0A8-A832-47AC-A9F0-462F891EDCA5}"/>
   </hyperlinks>
